--- a/Data/Processed/Angiosperms/missing_powo_ipni/Salicaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Salicaceae.xlsx
@@ -3127,7 +3127,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3435,7 +3435,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -3633,7 +3633,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4051,7 +4051,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -4634,7 +4634,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -5602,7 +5602,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -6020,7 +6020,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -6823,7 +6823,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -8066,7 +8066,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -8154,7 +8154,7 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -8682,7 +8682,7 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -9265,7 +9265,7 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
